--- a/restaurant/src/test/resources/restaurantdata.xlsx
+++ b/restaurant/src/test/resources/restaurantdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\gitrestaurant\restaurant\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478B61B9-0833-4AFB-99BA-DD89A84B062D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEB3136-9EC9-4937-AAC2-6BED4C5079B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/restaurant/src/test/resources/restaurantdata.xlsx
+++ b/restaurant/src/test/resources/restaurantdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\gitrestaurant\restaurant\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEB3136-9EC9-4937-AAC2-6BED4C5079B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E693F47-8B03-47AF-8C0A-716056056094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,12 +27,21 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
+    <t>ADD PRODUCT</t>
+  </si>
+  <si>
     <t>Product Code</t>
   </si>
   <si>
     <t>Product Name</t>
   </si>
   <si>
+    <t>APPLE</t>
+  </si>
+  <si>
+    <t>Product Purchase Price</t>
+  </si>
+  <si>
     <t>Product Tax</t>
   </si>
   <si>
@@ -48,18 +57,12 @@
     <t>Product Option</t>
   </si>
   <si>
+    <t>FRESH</t>
+  </si>
+  <si>
     <t>Product Description</t>
   </si>
   <si>
-    <t>APPLE</t>
-  </si>
-  <si>
-    <t>FRESH</t>
-  </si>
-  <si>
-    <t>ADD PRODUCT</t>
-  </si>
-  <si>
     <t>EDIT DATA</t>
   </si>
   <si>
@@ -67,9 +70,6 @@
   </si>
   <si>
     <t>DELETE DATA</t>
-  </si>
-  <si>
-    <t>Product Supplier</t>
   </si>
 </sst>
 </file>
@@ -113,9 +113,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,123 +397,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection sqref="A1:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/restaurant/src/test/resources/restaurantdata.xlsx
+++ b/restaurant/src/test/resources/restaurantdata.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\gitrestaurant\restaurant\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E693F47-8B03-47AF-8C0A-716056056094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971C7872-ACD3-4906-8920-CD03CE43F285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
+    <sheet name="category" sheetId="2" r:id="rId2"/>
+    <sheet name="expense" sheetId="3" r:id="rId3"/>
+    <sheet name="prdt_category" sheetId="4" r:id="rId4"/>
+    <sheet name="store" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
   <si>
     <t>ADD PRODUCT</t>
   </si>
@@ -70,13 +74,145 @@
   </si>
   <si>
     <t>DELETE DATA</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Product Search Code</t>
+  </si>
+  <si>
+    <t>ADD EXPENSE</t>
+  </si>
+  <si>
+    <t>Category Name</t>
+  </si>
+  <si>
+    <t>APPLE_EXPENSE</t>
+  </si>
+  <si>
+    <t>Category Search</t>
+  </si>
+  <si>
+    <t>APPLE_SREE_EXPENSE</t>
+  </si>
+  <si>
+    <t>Expense Date</t>
+  </si>
+  <si>
+    <t>Expense Reference</t>
+  </si>
+  <si>
+    <t>Expense Category</t>
+  </si>
+  <si>
+    <t>Expense Store</t>
+  </si>
+  <si>
+    <t>Expense Amount</t>
+  </si>
+  <si>
+    <t>Expense Description</t>
+  </si>
+  <si>
+    <t>05/01/2023</t>
+  </si>
+  <si>
+    <t>referenceA</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>MNC</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>EXPENSE DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Expense Search</t>
+  </si>
+  <si>
+    <t>referenceB</t>
+  </si>
+  <si>
+    <t>1250</t>
+  </si>
+  <si>
+    <t>APPLE_SREE</t>
+  </si>
+  <si>
+    <t>APPLE1_SREE</t>
+  </si>
+  <si>
+    <t>Store Name</t>
+  </si>
+  <si>
+    <t>Store Mail</t>
+  </si>
+  <si>
+    <t>Store Number</t>
+  </si>
+  <si>
+    <t>Store Countryname</t>
+  </si>
+  <si>
+    <t>Store Cityname</t>
+  </si>
+  <si>
+    <t>Store Address</t>
+  </si>
+  <si>
+    <t>Store CustomerFooter</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>aaa@gmail.com</t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>ADOOR</t>
+  </si>
+  <si>
+    <t>Heaven ALAPPUZHA</t>
+  </si>
+  <si>
+    <t>done by AKHIL</t>
+  </si>
+  <si>
+    <t>EDIT PRODUCT</t>
+  </si>
+  <si>
+    <t>abcd@gmail.com</t>
+  </si>
+  <si>
+    <t>9498571245</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +227,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF400000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,10 +255,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,8 +569,8 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -438,8 +587,8 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>100</v>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -447,8 +596,8 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>18</v>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -456,8 +605,8 @@
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
-        <v>10</v>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -465,8 +614,8 @@
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -474,8 +623,8 @@
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -519,34 +668,392 @@
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B668A9-0954-47A9-B890-56EB3EE20FD0}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582C80E4-8BEA-435D-B647-B8FC102C10D1}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D17BD3-F76E-4513-BE8D-33C61B69F471}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30246ED9-B908-486F-A900-DDE8DBF3ADFE}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/restaurant/src/test/resources/restaurantdata.xlsx
+++ b/restaurant/src/test/resources/restaurantdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\gitrestaurant\restaurant\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971C7872-ACD3-4906-8920-CD03CE43F285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08EF2E5-D501-45A7-8C78-25A87BF53630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="expense" sheetId="3" r:id="rId3"/>
     <sheet name="prdt_category" sheetId="4" r:id="rId4"/>
     <sheet name="store" sheetId="5" r:id="rId5"/>
+    <sheet name="waiter_dataprovider" sheetId="6" r:id="rId6"/>
+    <sheet name="customer_dataprovider" sheetId="7" r:id="rId7"/>
+    <sheet name="supplier_dataprovider" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="84">
   <si>
     <t>ADD PRODUCT</t>
   </si>
@@ -206,13 +209,88 @@
   </si>
   <si>
     <t>9498571245</t>
+  </si>
+  <si>
+    <t>Waiter Name</t>
+  </si>
+  <si>
+    <t>Waiter Phone</t>
+  </si>
+  <si>
+    <t>Waiter Mail</t>
+  </si>
+  <si>
+    <t>Waiter Store</t>
+  </si>
+  <si>
+    <t>AAN</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>aan@gmail.com</t>
+  </si>
+  <si>
+    <t>1452367895</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Customer Phone</t>
+  </si>
+  <si>
+    <t>Customer Mail</t>
+  </si>
+  <si>
+    <t>Customer Discount</t>
+  </si>
+  <si>
+    <t>AAC</t>
+  </si>
+  <si>
+    <t>1234567567</t>
+  </si>
+  <si>
+    <t>aac@gmail.com</t>
+  </si>
+  <si>
+    <t>7888888888</t>
+  </si>
+  <si>
+    <t>Supplier Name</t>
+  </si>
+  <si>
+    <t>Supplier Phone</t>
+  </si>
+  <si>
+    <t>Supplier Mail</t>
+  </si>
+  <si>
+    <t>Supplier Description</t>
+  </si>
+  <si>
+    <t>AANNA</t>
+  </si>
+  <si>
+    <t>1478529631</t>
+  </si>
+  <si>
+    <t>anna@gmail.com</t>
+  </si>
+  <si>
+    <t>FIRST SUPPLIER</t>
+  </si>
+  <si>
+    <t>8597461238</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +307,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF400000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10"/>
       <color rgb="FF400000"/>
       <name val="Courier New"/>
@@ -255,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -264,6 +349,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -780,10 +868,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582C80E4-8BEA-435D-B647-B8FC102C10D1}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -872,6 +960,19 @@
       </c>
       <c r="B12" s="2" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -950,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30246ED9-B908-486F-A900-DDE8DBF3ADFE}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1058,4 +1159,516 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5923FB06-DA8C-47FD-858F-ADD437A03043}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521EF2E7-8866-405A-A8EF-7E14146B963E}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA260ACA-7DD7-43F4-B079-ACF774DCD31E}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/restaurant/src/test/resources/restaurantdata.xlsx
+++ b/restaurant/src/test/resources/restaurantdata.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\gitrestaurant\restaurant\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08EF2E5-D501-45A7-8C78-25A87BF53630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FA34CC-AF8C-49A9-88E3-8790DF17980D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
     <sheet name="category" sheetId="2" r:id="rId2"/>
-    <sheet name="expense" sheetId="3" r:id="rId3"/>
-    <sheet name="prdt_category" sheetId="4" r:id="rId4"/>
-    <sheet name="store" sheetId="5" r:id="rId5"/>
-    <sheet name="waiter_dataprovider" sheetId="6" r:id="rId6"/>
-    <sheet name="customer_dataprovider" sheetId="7" r:id="rId7"/>
-    <sheet name="supplier_dataprovider" sheetId="8" r:id="rId8"/>
+    <sheet name="users" sheetId="10" r:id="rId3"/>
+    <sheet name="expense" sheetId="3" r:id="rId4"/>
+    <sheet name="prdt_category" sheetId="4" r:id="rId5"/>
+    <sheet name="store" sheetId="5" r:id="rId6"/>
+    <sheet name="waiter_dataprovider" sheetId="6" r:id="rId7"/>
+    <sheet name="customer_dataprovider" sheetId="7" r:id="rId8"/>
+    <sheet name="supplier_dataprovider" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="93">
   <si>
     <t>ADD PRODUCT</t>
   </si>
@@ -284,13 +286,40 @@
   </si>
   <si>
     <t>8597461238</t>
+  </si>
+  <si>
+    <t>ADD USER</t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>User FirstName</t>
+  </si>
+  <si>
+    <t>User Email</t>
+  </si>
+  <si>
+    <t>User Password</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>123456</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +348,14 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -337,10 +374,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -354,8 +392,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -799,11 +839,23 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F7C5A1-8DA6-467A-ACEC-F173F300CCA6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B668A9-0954-47A9-B890-56EB3EE20FD0}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -867,6 +919,68 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADDF44E-929C-4361-8AD7-F6ED2F05BBCB}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{D8CFBFCF-8F34-4569-8C30-6845B55A8217}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582C80E4-8BEA-435D-B647-B8FC102C10D1}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -981,12 +1095,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D17BD3-F76E-4513-BE8D-33C61B69F471}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1047,7 +1161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30246ED9-B908-486F-A900-DDE8DBF3ADFE}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -1161,7 +1275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5923FB06-DA8C-47FD-858F-ADD437A03043}">
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -1332,7 +1446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521EF2E7-8866-405A-A8EF-7E14146B963E}">
   <dimension ref="A1:F20"/>
   <sheetViews>
@@ -1503,11 +1617,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA260ACA-7DD7-43F4-B079-ACF774DCD31E}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>

--- a/restaurant/src/test/resources/restaurantdata.xlsx
+++ b/restaurant/src/test/resources/restaurantdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\gitrestaurant\restaurant\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FA34CC-AF8C-49A9-88E3-8790DF17980D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46CE79E-B862-4580-B08B-D7A9C297D1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
@@ -132,9 +132,6 @@
     <t>Expense Description</t>
   </si>
   <si>
-    <t>05/01/2023</t>
-  </si>
-  <si>
     <t>referenceA</t>
   </si>
   <si>
@@ -313,6 +310,9 @@
   </si>
   <si>
     <t>123456</t>
+  </si>
+  <si>
+    <t>05-01-2023</t>
   </si>
 </sst>
 </file>
@@ -922,7 +922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADDF44E-929C-4361-8AD7-F6ED2F05BBCB}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -934,39 +934,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -984,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582C80E4-8BEA-435D-B647-B8FC102C10D1}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1004,7 +1004,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1012,7 +1012,7 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1020,7 +1020,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1028,7 +1028,7 @@
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1036,7 +1036,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1044,7 +1044,7 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1054,10 +1054,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1065,7 +1065,7 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1073,7 +1073,7 @@
         <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1083,10 +1083,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
         <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1119,7 +1119,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1132,7 +1132,7 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1140,7 +1140,7 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1153,7 +1153,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1166,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B17" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1182,79 +1182,79 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1264,10 +1264,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1296,135 +1296,135 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1434,10 +1434,10 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1467,31 +1467,31 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>18</v>
@@ -1499,31 +1499,31 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>18</v>
@@ -1531,36 +1531,36 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>18</v>
@@ -1568,32 +1568,32 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>18</v>
@@ -1606,10 +1606,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1638,135 +1638,135 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1776,10 +1776,10 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
